--- a/test_instance1.xlsx
+++ b/test_instance1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDECE4AE-C194-411C-8214-33A335370339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAB484-4FFB-4E37-AEF7-2C85F71773E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="720" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="106">
   <si>
     <t>Rider</t>
   </si>
@@ -354,7 +354,34 @@
     <t>Ebbesvik</t>
   </si>
   <si>
-    <t>0800, 0827</t>
+    <t>0800, 0839</t>
+  </si>
+  <si>
+    <t>0800, 0843</t>
+  </si>
+  <si>
+    <t>0800, 0847</t>
+  </si>
+  <si>
+    <t>0800, 0851</t>
+  </si>
+  <si>
+    <t>0800, 0855</t>
+  </si>
+  <si>
+    <t>0800, 0859</t>
+  </si>
+  <si>
+    <t>0800, 0863</t>
+  </si>
+  <si>
+    <t>0800, 0867</t>
+  </si>
+  <si>
+    <t>0800, 0871</t>
+  </si>
+  <si>
+    <t>0800, 0875</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1155,7 @@
   <dimension ref="A1:M892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1175,8 +1202,8 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" cm="1">
-        <f t="array" ref="E2">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*4</f>
-        <v>148</v>
+        <f t="array" ref="E2">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>74</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1187,22 +1214,24 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" cm="1">
-        <f t="array" ref="E3">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*4</f>
-        <v>128</v>
-      </c>
-      <c r="F3" s="2"/>
+        <f t="array" ref="E3">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>104</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1212,113 +1241,238 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" cm="1">
-        <f t="array" ref="E4">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*4</f>
-        <v>88</v>
-      </c>
-      <c r="F4" s="2"/>
+        <f t="array" ref="E4">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>74</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" cm="1">
+        <f t="array" ref="E5">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>104</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="3" cm="1">
+        <f t="array" ref="E6">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>72</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3" cm="1">
+        <f t="array" ref="E7">_xlfn.XLOOKUP(B7,$H$20:$H$42,_xlfn.XLOOKUP(C7,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="3" cm="1">
+        <f t="array" ref="E8">_xlfn.XLOOKUP(B8,$H$20:$H$42,_xlfn.XLOOKUP(C8,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="3" cm="1">
+        <f t="array" ref="E9">_xlfn.XLOOKUP(B9,$H$20:$H$42,_xlfn.XLOOKUP(C9,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" cm="1">
+        <f t="array" ref="E10">_xlfn.XLOOKUP(B10,$H$20:$H$42,_xlfn.XLOOKUP(C10,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3" cm="1">
+        <f t="array" ref="E11">_xlfn.XLOOKUP(B11,$H$20:$H$42,_xlfn.XLOOKUP(C11,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="3" cm="1">
+        <f t="array" ref="E12">_xlfn.XLOOKUP(B12,$H$20:$H$42,_xlfn.XLOOKUP(C12,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>86</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3" cm="1">
+        <f t="array" ref="E13">_xlfn.XLOOKUP(B13,$H$20:$H$42,_xlfn.XLOOKUP(C13,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3" cm="1">
+        <f t="array" ref="E14">_xlfn.XLOOKUP(B14,$H$20:$H$42,_xlfn.XLOOKUP(C14,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="3" cm="1">
+        <f t="array" ref="E15">_xlfn.XLOOKUP(B15,$H$20:$H$42,_xlfn.XLOOKUP(C15,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -2922,23 +3076,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -2965,7 +3119,7 @@
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2996,50 +3150,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3072,23 +3226,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3115,7 +3269,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3145,50 +3299,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3218,50 +3372,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3291,50 +3445,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3355,23 +3509,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3398,7 +3552,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3419,23 +3573,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3462,7 +3616,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3480,50 +3634,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3561,30 +3715,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3603,23 +3757,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3646,7 +3800,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3667,50 +3821,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3719,50 +3873,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3771,50 +3925,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3823,50 +3977,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3875,23 +4029,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3918,7 +4072,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3927,50 +4081,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3979,50 +4133,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4044,23 +4198,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4087,7 +4241,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4111,50 +4265,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4178,50 +4332,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4251,50 +4405,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4324,50 +4478,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4418,30 +4572,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4468,23 +4622,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4511,7 +4665,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4538,50 +4692,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4608,50 +4762,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4678,50 +4832,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4748,50 +4902,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4818,50 +4972,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5868,23 +6022,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5911,7 +6065,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5929,50 +6083,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5990,50 +6144,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6052,23 +6206,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6095,7 +6249,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6116,50 +6270,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6168,50 +6322,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6220,50 +6374,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6272,50 +6426,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6324,23 +6478,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6367,7 +6521,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6376,50 +6530,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6448,30 +6602,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6493,50 +6647,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6560,23 +6714,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6603,7 +6757,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6627,23 +6781,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6670,7 +6824,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6700,23 +6854,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6743,7 +6897,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6773,50 +6927,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6847,23 +7001,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6890,7 +7044,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6917,50 +7071,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6987,23 +7141,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7030,7 +7184,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -8020,23 +8174,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8063,7 +8217,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8081,23 +8235,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8124,7 +8278,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8142,23 +8296,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8185,7 +8339,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8203,50 +8357,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8264,43 +8418,43 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
@@ -8390,50 +8544,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8442,50 +8596,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8494,23 +8648,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8537,7 +8691,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8546,50 +8700,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8598,23 +8752,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8641,7 +8795,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8650,50 +8804,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8702,23 +8856,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8767,50 +8921,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8834,23 +8988,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8877,7 +9031,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8901,50 +9055,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8974,50 +9128,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9047,50 +9201,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9121,50 +9275,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9211,30 +9365,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10252,50 +10406,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10313,50 +10467,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10374,23 +10528,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10417,7 +10571,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10435,50 +10589,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10496,23 +10650,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10539,7 +10693,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10558,50 +10712,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10622,50 +10776,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10674,23 +10828,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10717,7 +10871,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10726,50 +10880,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10778,50 +10932,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10830,50 +10984,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10882,23 +11036,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10925,7 +11079,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10934,50 +11088,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12190,50 +12344,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12271,30 +12425,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12312,50 +12466,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12373,50 +12527,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12434,23 +12588,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12477,7 +12631,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12496,23 +12650,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12539,7 +12693,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12560,50 +12714,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12612,50 +12766,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12664,50 +12818,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12716,50 +12870,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13880,30 +14034,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13930,23 +14084,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14000,23 +14154,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14043,7 +14197,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14061,50 +14215,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14122,50 +14276,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14183,23 +14337,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14226,7 +14380,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14244,50 +14398,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14306,50 +14460,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14390,30 +14544,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15463,50 +15617,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15533,50 +15687,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15603,50 +15757,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15693,30 +15847,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15734,50 +15888,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15815,30 +15969,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15856,50 +16010,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -17045,50 +17199,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17115,50 +17269,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17205,30 +17359,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance1.xlsx
+++ b/test_instance1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDECE4AE-C194-411C-8214-33A335370339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFDC375-2A6E-425B-9F3C-AFB422DF323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="720" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="960" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="98">
   <si>
     <t>Rider</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>0800, 0827</t>
+  </si>
+  <si>
+    <t>0800, 0839</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1131,7 @@
   <dimension ref="A1:M892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>33</v>
@@ -1176,7 +1179,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" ref="E2">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*4</f>
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1190,17 +1193,17 @@
         <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="3" cm="1">
-        <f t="array" ref="E3">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*4</f>
-        <v>128</v>
+        <f t="array" ref="E3">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>54</v>
       </c>
       <c r="F3" s="2"/>
       <c r="H3" s="9"/>
@@ -1215,17 +1218,17 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3" cm="1">
-        <f t="array" ref="E4">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*4</f>
-        <v>88</v>
+        <f t="array" ref="E4">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>58</v>
       </c>
       <c r="F4" s="2"/>
       <c r="M4" s="2" t="s">
@@ -1233,22 +1236,44 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="3" cm="1">
+        <f t="array" ref="E5">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>64</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="3" cm="1">
+        <f t="array" ref="E6">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>42</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>33</v>
@@ -2922,23 +2947,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -2965,7 +2990,7 @@
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2996,50 +3021,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3072,23 +3097,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3115,7 +3140,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3145,50 +3170,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3218,50 +3243,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3291,23 +3316,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3334,7 +3359,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3355,23 +3380,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3398,7 +3423,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3419,23 +3444,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3462,7 +3487,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3480,50 +3505,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3541,50 +3566,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3603,50 +3628,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3667,50 +3692,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3719,50 +3744,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3771,50 +3796,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3823,50 +3848,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3875,50 +3900,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3927,50 +3952,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3979,50 +4004,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4044,50 +4069,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4111,23 +4136,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4154,7 +4179,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4178,50 +4203,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4251,23 +4276,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4294,7 +4319,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4324,50 +4349,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4488,30 +4513,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4558,30 +4583,30 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4608,50 +4633,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4678,50 +4703,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4748,50 +4773,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4818,23 +4843,23 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4861,7 +4886,7 @@
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5868,50 +5893,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5929,43 +5954,43 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -5990,23 +6015,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6033,7 +6058,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6052,50 +6077,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6116,50 +6141,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6168,50 +6193,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6220,50 +6245,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6272,50 +6297,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6324,50 +6349,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6376,23 +6401,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6419,7 +6444,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6448,30 +6473,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6493,23 +6518,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6536,7 +6561,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6560,50 +6585,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6627,23 +6652,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6670,7 +6695,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6700,50 +6725,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6773,23 +6798,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6816,7 +6841,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6867,30 +6892,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6937,30 +6962,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6987,50 +7012,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -8020,50 +8045,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8081,23 +8106,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8124,7 +8149,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8162,30 +8187,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8203,23 +8228,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8246,7 +8271,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8264,50 +8289,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8346,30 +8371,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8390,50 +8415,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8442,50 +8467,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8494,50 +8519,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8546,23 +8571,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8589,7 +8614,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8598,50 +8623,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8650,50 +8675,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8702,50 +8727,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8767,50 +8792,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8834,23 +8859,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8877,7 +8902,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8901,50 +8926,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8994,30 +9019,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9047,50 +9072,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9141,30 +9166,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9191,50 +9216,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10252,50 +10277,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10313,50 +10338,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10374,50 +10399,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10435,50 +10460,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10496,43 +10521,43 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
@@ -10558,50 +10583,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10622,23 +10647,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10665,7 +10690,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10674,50 +10699,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10726,50 +10751,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10778,50 +10803,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10830,50 +10855,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10882,50 +10907,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10934,50 +10959,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12190,50 +12215,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12251,50 +12276,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12312,23 +12337,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12355,7 +12380,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12434,50 +12459,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12496,50 +12521,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12560,50 +12585,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12632,30 +12657,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12664,50 +12689,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12716,50 +12741,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13860,50 +13885,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13930,50 +13955,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14000,43 +14025,43 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
@@ -14081,30 +14106,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14142,30 +14167,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14183,50 +14208,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14244,23 +14269,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14287,7 +14312,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14306,50 +14331,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14370,23 +14395,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14413,7 +14438,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15463,50 +15488,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15533,50 +15558,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15603,50 +15628,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15673,50 +15698,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15734,50 +15759,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15795,23 +15820,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15838,7 +15863,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15856,50 +15881,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15917,23 +15942,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15960,7 +15985,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17045,50 +17070,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17115,50 +17140,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17185,50 +17210,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance1.xlsx
+++ b/test_instance1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAB484-4FFB-4E37-AEF7-2C85F71773E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E716375D-C16F-4674-B617-AD4444894EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:M892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3076,23 +3076,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -3150,23 +3150,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3226,50 +3226,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3299,50 +3299,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3372,50 +3372,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3445,50 +3445,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3509,43 +3509,43 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
@@ -3634,50 +3634,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3695,23 +3695,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3757,50 +3757,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3821,50 +3821,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3873,50 +3873,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3925,50 +3925,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3977,50 +3977,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4029,50 +4029,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4081,50 +4081,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4133,50 +4133,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4198,23 +4198,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4265,50 +4265,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4332,50 +4332,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4405,23 +4405,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4478,50 +4478,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4552,50 +4552,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4622,23 +4622,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4692,50 +4692,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4762,50 +4762,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4832,50 +4832,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4902,43 +4902,43 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
@@ -4972,50 +4972,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -6022,50 +6022,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6083,50 +6083,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6164,30 +6164,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6206,23 +6206,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6322,50 +6322,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6374,50 +6374,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6426,50 +6426,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6478,50 +6478,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6530,23 +6530,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6582,50 +6582,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6667,30 +6667,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6714,50 +6714,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6781,23 +6781,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6854,23 +6854,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6927,50 +6927,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -7001,50 +7001,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -7091,30 +7091,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -7141,50 +7141,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -8174,50 +8174,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8235,50 +8235,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8296,50 +8296,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8357,50 +8357,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8418,50 +8418,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8480,50 +8480,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8544,50 +8544,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8596,23 +8596,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8648,23 +8648,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8700,23 +8700,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8752,50 +8752,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8804,50 +8804,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8856,23 +8856,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8921,50 +8921,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8988,50 +8988,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -9055,50 +9055,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -9128,50 +9128,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9201,50 +9201,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9275,50 +9275,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9345,50 +9345,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10406,23 +10406,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10467,23 +10467,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10528,23 +10528,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10589,23 +10589,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10650,50 +10650,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10712,50 +10712,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10776,23 +10776,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10828,50 +10828,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10880,50 +10880,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10932,23 +10932,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10984,50 +10984,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -11036,50 +11036,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -11088,50 +11088,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12344,50 +12344,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12405,50 +12405,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12466,50 +12466,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12527,50 +12527,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12588,50 +12588,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12650,50 +12650,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12714,50 +12714,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12766,50 +12766,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12818,50 +12818,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12870,23 +12870,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -14034,30 +14034,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -14084,23 +14084,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14154,23 +14154,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14197,7 +14197,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14215,50 +14215,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14276,50 +14276,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14337,50 +14337,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14398,43 +14398,43 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
@@ -14460,23 +14460,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14503,7 +14503,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14524,23 +14524,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15617,50 +15617,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15687,43 +15687,43 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
@@ -15757,50 +15757,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15827,23 +15827,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15888,50 +15888,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15949,50 +15949,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -16010,50 +16010,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -16071,50 +16071,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17199,23 +17199,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17269,50 +17269,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17339,50 +17339,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance1.xlsx
+++ b/test_instance1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFDC375-2A6E-425B-9F3C-AFB422DF323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1029A-F0E6-441A-BA8C-D7BB928EEE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="960" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="480" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:M892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>33</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" ref="E4">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2"/>
       <c r="M4" s="2" t="s">
@@ -2883,7 +2883,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:XFD1048576"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2967,30 +2967,30 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -3021,23 +3021,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3097,23 +3097,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3170,23 +3170,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3243,50 +3243,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3316,23 +3316,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3400,30 +3400,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3444,50 +3444,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3505,50 +3505,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3566,50 +3566,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3628,50 +3628,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3712,30 +3712,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3744,50 +3744,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3796,23 +3796,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3848,50 +3848,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3920,30 +3920,30 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3952,50 +3952,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4024,30 +4024,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4069,50 +4069,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4136,50 +4136,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4203,43 +4203,43 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
@@ -4276,50 +4276,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4423,50 +4423,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4493,23 +4493,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4563,23 +4563,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4633,50 +4633,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4703,50 +4703,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4773,50 +4773,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4843,50 +4843,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5346,7 +5346,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5893,50 +5893,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5954,50 +5954,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6015,50 +6015,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6077,50 +6077,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6141,50 +6141,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6193,50 +6193,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6245,50 +6245,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6349,50 +6349,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6401,50 +6401,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6453,50 +6453,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6518,50 +6518,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6585,23 +6585,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6652,50 +6652,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6725,50 +6725,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6798,23 +6798,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6872,23 +6872,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6942,23 +6942,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -7622,7 +7622,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="A1:XFD1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8045,50 +8045,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8106,50 +8106,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8167,50 +8167,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8228,50 +8228,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8289,50 +8289,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8351,23 +8351,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8415,50 +8415,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8467,50 +8467,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8539,30 +8539,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8571,50 +8571,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8623,23 +8623,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8675,50 +8675,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8727,50 +8727,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8792,23 +8792,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8859,50 +8859,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8926,23 +8926,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8999,50 +8999,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9072,50 +9072,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9146,23 +9146,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9216,50 +9216,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -9854,7 +9854,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="A1:XFD1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10297,30 +10297,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10338,50 +10338,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10399,50 +10399,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10480,30 +10480,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10521,50 +10521,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10583,23 +10583,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10647,50 +10647,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10699,50 +10699,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10751,50 +10751,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10803,23 +10803,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10855,50 +10855,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10907,50 +10907,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10959,50 +10959,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -11792,7 +11792,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="A1:XFD1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12215,50 +12215,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12276,23 +12276,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12337,50 +12337,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12398,23 +12398,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12459,23 +12459,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12502,7 +12502,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12521,50 +12521,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12585,43 +12585,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -12637,23 +12637,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12680,7 +12680,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12689,50 +12689,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12741,50 +12741,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13604,7 +13604,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13885,23 +13885,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13975,30 +13975,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14025,50 +14025,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14086,50 +14086,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14147,50 +14147,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14208,50 +14208,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14269,50 +14269,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14331,50 +14331,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14395,50 +14395,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15488,50 +15488,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15558,50 +15558,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15628,23 +15628,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15698,23 +15698,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15759,50 +15759,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15820,50 +15820,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15881,50 +15881,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15942,50 +15942,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17140,50 +17140,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17210,50 +17210,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
